--- a/data/Rosa e Stats 2020-2021.xlsx
+++ b/data/Rosa e Stats 2020-2021.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totti/Developer/fun/tamarindi-web/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{13B7B3F3-D70A-1D46-86E3-6DBD50578131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18732" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="620" windowWidth="18740" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Matteo Cutroni - Personal View" guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}" mergeInterval="0" personalView="1" xWindow="18" yWindow="31" windowWidth="937" windowHeight="585" activeSheetId="1"/>
     <customWorkbookView name="Acer - Visualizzazione personale" guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="802" activeSheetId="1"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -351,9 +371,6 @@
     <t>Nova Virtus</t>
   </si>
   <si>
-    <t>Coddetta [R]</t>
-  </si>
-  <si>
     <t>Battisti</t>
   </si>
   <si>
@@ -401,12 +418,15 @@
   <si>
     <t>Davide Guarino</t>
   </si>
+  <si>
+    <t>Coddetta [P]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -499,29 +519,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{AF8129AA-71D5-4B56-A909-1A80F8B78A4C}" diskRevisions="1" revisionId="348" version="36">
-  <header guid="{AF8129AA-71D5-4B56-A909-1A80F8B78A4C}" dateTime="2025-05-23T15:13:38" maxSheetId="4" userName="Acer" r:id="rId36" minRId="348">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BA0E6AD0-F03D-024F-B6B0-768153E5143B}" diskRevisions="1" revisionId="351" version="37">
+  <header guid="{BA0E6AD0-F03D-024F-B6B0-768153E5143B}" dateTime="2025-11-18T23:59:00" maxSheetId="4" userName="Matteo Cutroni" r:id="rId37" minRId="349" maxRId="351">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -531,24 +556,56 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="348" sId="1">
-    <nc r="O28">
-      <v>1</v>
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="349" sId="1">
+    <oc r="C57" t="inlineStr">
+      <is>
+        <t>Coddetta [R]</t>
+      </is>
+    </oc>
+    <nc r="C57" t="inlineStr">
+      <is>
+        <t>Coddetta [P]</t>
+      </is>
     </nc>
   </rcc>
+  <rcc rId="350" sId="1">
+    <oc r="C66" t="inlineStr">
+      <is>
+        <t>Coddetta [R]</t>
+      </is>
+    </oc>
+    <nc r="C66" t="inlineStr">
+      <is>
+        <t>Coddetta [P]</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="351" sId="1">
+    <oc r="F70" t="inlineStr">
+      <is>
+        <t>Coddetta [R]</t>
+      </is>
+    </oc>
+    <nc r="F70" t="inlineStr">
+      <is>
+        <t>Coddetta [P]</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -586,7 +643,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -620,6 +677,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -654,9 +712,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -829,20 +888,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="26" max="26" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="15.6">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -922,7 +981,7 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1000,7 +1059,7 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:78">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1139,7 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1158,7 +1217,7 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" s="3" customFormat="1" ht="13.8">
+    <row r="5" spans="1:78" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:78" s="3" customFormat="1" ht="13.8">
+    <row r="6" spans="1:78" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1232,7 +1291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:78">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1310,207 +1369,207 @@
       <c r="BY7" s="1"/>
       <c r="BZ7" s="1"/>
     </row>
-    <row r="8" spans="1:78" s="15" customFormat="1">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
         <v>2</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <f t="shared" ref="H8:H34" si="0">SUM(F8:G8)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11">
         <f t="shared" ref="M8:M33" si="1">SUM(J8:L8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14" t="s">
+      <c r="U8" s="11"/>
+      <c r="V8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="Z8" s="16">
+      <c r="W8" s="11"/>
+      <c r="Z8" s="13">
         <v>36604</v>
       </c>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14">
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11">
         <f t="shared" ref="AC8:AC34" si="2">SUM(AB8,M8)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
-      <c r="BM8" s="14"/>
-      <c r="BN8" s="14"/>
-      <c r="BO8" s="14"/>
-      <c r="BP8" s="14"/>
-      <c r="BQ8" s="14"/>
-      <c r="BR8" s="14"/>
-      <c r="BS8" s="14"/>
-      <c r="BT8" s="14"/>
-      <c r="BU8" s="14"/>
-      <c r="BV8" s="14"/>
-      <c r="BW8" s="14"/>
-      <c r="BX8" s="14"/>
-      <c r="BY8" s="14"/>
-      <c r="BZ8" s="14"/>
-    </row>
-    <row r="9" spans="1:78" s="15" customFormat="1">
-      <c r="A9" s="14" t="s">
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="11"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="11"/>
+      <c r="BL8" s="11"/>
+      <c r="BM8" s="11"/>
+      <c r="BN8" s="11"/>
+      <c r="BO8" s="11"/>
+      <c r="BP8" s="11"/>
+      <c r="BQ8" s="11"/>
+      <c r="BR8" s="11"/>
+      <c r="BS8" s="11"/>
+      <c r="BT8" s="11"/>
+      <c r="BU8" s="11"/>
+      <c r="BV8" s="11"/>
+      <c r="BW8" s="11"/>
+      <c r="BX8" s="11"/>
+      <c r="BY8" s="11"/>
+      <c r="BZ8" s="11"/>
+    </row>
+    <row r="9" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
         <v>16</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14" t="s">
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14" t="s">
+      <c r="U9" s="11"/>
+      <c r="V9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="Z9" s="16">
+      <c r="W9" s="11"/>
+      <c r="Z9" s="13">
         <v>36561</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14">
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11">
         <v>1</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AC9" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
-      <c r="BM9" s="14"/>
-      <c r="BN9" s="14"/>
-      <c r="BO9" s="14"/>
-      <c r="BP9" s="14"/>
-      <c r="BQ9" s="14"/>
-      <c r="BR9" s="14"/>
-      <c r="BS9" s="14"/>
-      <c r="BT9" s="14"/>
-      <c r="BU9" s="14"/>
-      <c r="BV9" s="14"/>
-      <c r="BW9" s="14"/>
-      <c r="BX9" s="14"/>
-      <c r="BY9" s="14"/>
-      <c r="BZ9" s="14"/>
-    </row>
-    <row r="10" spans="1:78">
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+      <c r="BF9" s="11"/>
+      <c r="BG9" s="11"/>
+      <c r="BH9" s="11"/>
+      <c r="BI9" s="11"/>
+      <c r="BJ9" s="11"/>
+      <c r="BK9" s="11"/>
+      <c r="BL9" s="11"/>
+      <c r="BM9" s="11"/>
+      <c r="BN9" s="11"/>
+      <c r="BO9" s="11"/>
+      <c r="BP9" s="11"/>
+      <c r="BQ9" s="11"/>
+      <c r="BR9" s="11"/>
+      <c r="BS9" s="11"/>
+      <c r="BT9" s="11"/>
+      <c r="BU9" s="11"/>
+      <c r="BV9" s="11"/>
+      <c r="BW9" s="11"/>
+      <c r="BX9" s="11"/>
+      <c r="BY9" s="11"/>
+      <c r="BZ9" s="11"/>
+    </row>
+    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1672,7 @@
       <c r="BY10" s="1"/>
       <c r="BZ10" s="1"/>
     </row>
-    <row r="11" spans="1:78">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1714,7 +1773,7 @@
       <c r="BY11" s="1"/>
       <c r="BZ11" s="1"/>
     </row>
-    <row r="12" spans="1:78">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1815,486 +1874,486 @@
       <c r="BY12" s="1"/>
       <c r="BZ12" s="1"/>
     </row>
-    <row r="13" spans="1:78" s="15" customFormat="1">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11">
         <f>SUM(J13:L13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14" t="s">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14">
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11">
         <f>SUM(M13,AB13)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="14"/>
-      <c r="BE13" s="14"/>
-      <c r="BF13" s="14"/>
-      <c r="BG13" s="14"/>
-      <c r="BH13" s="14"/>
-      <c r="BI13" s="14"/>
-      <c r="BJ13" s="14"/>
-      <c r="BK13" s="14"/>
-      <c r="BL13" s="14"/>
-      <c r="BM13" s="14"/>
-      <c r="BN13" s="14"/>
-      <c r="BO13" s="14"/>
-      <c r="BP13" s="14"/>
-      <c r="BQ13" s="14"/>
-      <c r="BR13" s="14"/>
-      <c r="BS13" s="14"/>
-      <c r="BT13" s="14"/>
-      <c r="BU13" s="14"/>
-      <c r="BV13" s="14"/>
-      <c r="BW13" s="14"/>
-      <c r="BX13" s="14"/>
-      <c r="BY13" s="14"/>
-      <c r="BZ13" s="14"/>
-    </row>
-    <row r="14" spans="1:78" s="15" customFormat="1">
-      <c r="A14" s="14" t="s">
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="11"/>
+      <c r="BP13" s="11"/>
+      <c r="BQ13" s="11"/>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="11"/>
+      <c r="BT13" s="11"/>
+      <c r="BU13" s="11"/>
+      <c r="BV13" s="11"/>
+      <c r="BW13" s="11"/>
+      <c r="BX13" s="11"/>
+      <c r="BY13" s="11"/>
+      <c r="BZ13" s="11"/>
+    </row>
+    <row r="14" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
         <v>3</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14" t="s">
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14" t="s">
+      <c r="U14" s="11"/>
+      <c r="V14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="W14" s="14"/>
-      <c r="Z14" s="16">
+      <c r="W14" s="11"/>
+      <c r="Z14" s="13">
         <v>36839</v>
       </c>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14">
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14"/>
-      <c r="BE14" s="14"/>
-      <c r="BF14" s="14"/>
-      <c r="BG14" s="14"/>
-      <c r="BH14" s="14"/>
-      <c r="BI14" s="14"/>
-      <c r="BJ14" s="14"/>
-      <c r="BK14" s="14"/>
-      <c r="BL14" s="14"/>
-      <c r="BM14" s="14"/>
-      <c r="BN14" s="14"/>
-      <c r="BO14" s="14"/>
-      <c r="BP14" s="14"/>
-      <c r="BQ14" s="14"/>
-      <c r="BR14" s="14"/>
-      <c r="BS14" s="14"/>
-      <c r="BT14" s="14"/>
-      <c r="BU14" s="14"/>
-      <c r="BV14" s="14"/>
-      <c r="BW14" s="14"/>
-      <c r="BX14" s="14"/>
-      <c r="BY14" s="14"/>
-      <c r="BZ14" s="14"/>
-    </row>
-    <row r="15" spans="1:78" s="15" customFormat="1">
-      <c r="A15" s="14" t="s">
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
+      <c r="BF14" s="11"/>
+      <c r="BG14" s="11"/>
+      <c r="BH14" s="11"/>
+      <c r="BI14" s="11"/>
+      <c r="BJ14" s="11"/>
+      <c r="BK14" s="11"/>
+      <c r="BL14" s="11"/>
+      <c r="BM14" s="11"/>
+      <c r="BN14" s="11"/>
+      <c r="BO14" s="11"/>
+      <c r="BP14" s="11"/>
+      <c r="BQ14" s="11"/>
+      <c r="BR14" s="11"/>
+      <c r="BS14" s="11"/>
+      <c r="BT14" s="11"/>
+      <c r="BU14" s="11"/>
+      <c r="BV14" s="11"/>
+      <c r="BW14" s="11"/>
+      <c r="BX14" s="11"/>
+      <c r="BY14" s="11"/>
+      <c r="BZ14" s="11"/>
+    </row>
+    <row r="15" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
         <v>4</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <f>SUM(F15:G15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11">
         <f>SUM(J15:L15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14" t="s">
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14" t="s">
+      <c r="U15" s="11"/>
+      <c r="V15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="W15" s="14"/>
-      <c r="Z15" s="16">
+      <c r="W15" s="11"/>
+      <c r="Z15" s="13">
         <v>36827</v>
       </c>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14">
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11">
         <f>SUM(AB15,M15)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="14"/>
-      <c r="BK15" s="14"/>
-      <c r="BL15" s="14"/>
-      <c r="BM15" s="14"/>
-      <c r="BN15" s="14"/>
-      <c r="BO15" s="14"/>
-      <c r="BP15" s="14"/>
-      <c r="BQ15" s="14"/>
-      <c r="BR15" s="14"/>
-      <c r="BS15" s="14"/>
-      <c r="BT15" s="14"/>
-      <c r="BU15" s="14"/>
-      <c r="BV15" s="14"/>
-      <c r="BW15" s="14"/>
-      <c r="BX15" s="14"/>
-      <c r="BY15" s="14"/>
-      <c r="BZ15" s="14"/>
-    </row>
-    <row r="16" spans="1:78" s="15" customFormat="1">
-      <c r="A16" s="14" t="s">
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
+      <c r="BF15" s="11"/>
+      <c r="BG15" s="11"/>
+      <c r="BH15" s="11"/>
+      <c r="BI15" s="11"/>
+      <c r="BJ15" s="11"/>
+      <c r="BK15" s="11"/>
+      <c r="BL15" s="11"/>
+      <c r="BM15" s="11"/>
+      <c r="BN15" s="11"/>
+      <c r="BO15" s="11"/>
+      <c r="BP15" s="11"/>
+      <c r="BQ15" s="11"/>
+      <c r="BR15" s="11"/>
+      <c r="BS15" s="11"/>
+      <c r="BT15" s="11"/>
+      <c r="BU15" s="11"/>
+      <c r="BV15" s="11"/>
+      <c r="BW15" s="11"/>
+      <c r="BX15" s="11"/>
+      <c r="BY15" s="11"/>
+      <c r="BZ15" s="11"/>
+    </row>
+    <row r="16" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
         <v>45</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14" t="s">
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14" t="s">
+      <c r="U16" s="11"/>
+      <c r="V16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="W16" s="14"/>
-      <c r="Z16" s="16">
+      <c r="W16" s="11"/>
+      <c r="Z16" s="13">
         <v>37591</v>
       </c>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14">
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="14"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="14"/>
-      <c r="BJ16" s="14"/>
-      <c r="BK16" s="14"/>
-      <c r="BL16" s="14"/>
-      <c r="BM16" s="14"/>
-      <c r="BN16" s="14"/>
-      <c r="BO16" s="14"/>
-      <c r="BP16" s="14"/>
-      <c r="BQ16" s="14"/>
-      <c r="BR16" s="14"/>
-      <c r="BS16" s="14"/>
-      <c r="BT16" s="14"/>
-      <c r="BU16" s="14"/>
-      <c r="BV16" s="14"/>
-      <c r="BW16" s="14"/>
-      <c r="BX16" s="14"/>
-      <c r="BY16" s="14"/>
-      <c r="BZ16" s="14"/>
-    </row>
-    <row r="17" spans="1:78" s="15" customFormat="1">
-      <c r="A17" s="14" t="s">
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="11"/>
+      <c r="BH16" s="11"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11"/>
+      <c r="BL16" s="11"/>
+      <c r="BM16" s="11"/>
+      <c r="BN16" s="11"/>
+      <c r="BO16" s="11"/>
+      <c r="BP16" s="11"/>
+      <c r="BQ16" s="11"/>
+      <c r="BR16" s="11"/>
+      <c r="BS16" s="11"/>
+      <c r="BT16" s="11"/>
+      <c r="BU16" s="11"/>
+      <c r="BV16" s="11"/>
+      <c r="BW16" s="11"/>
+      <c r="BX16" s="11"/>
+      <c r="BY16" s="11"/>
+      <c r="BZ16" s="11"/>
+    </row>
+    <row r="17" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
         <f>SUM(F17:G17)</f>
         <v>1</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11">
         <f>SUM(J17:L17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14" t="s">
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14">
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="14"/>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="14"/>
-      <c r="BJ17" s="14"/>
-      <c r="BK17" s="14"/>
-      <c r="BL17" s="14"/>
-      <c r="BM17" s="14"/>
-      <c r="BN17" s="14"/>
-      <c r="BO17" s="14"/>
-      <c r="BP17" s="14"/>
-      <c r="BQ17" s="14"/>
-      <c r="BR17" s="14"/>
-      <c r="BS17" s="14"/>
-      <c r="BT17" s="14"/>
-      <c r="BU17" s="14"/>
-      <c r="BV17" s="14"/>
-      <c r="BW17" s="14"/>
-      <c r="BX17" s="14"/>
-      <c r="BY17" s="14"/>
-      <c r="BZ17" s="14"/>
-    </row>
-    <row r="18" spans="1:78">
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
+      <c r="BF17" s="11"/>
+      <c r="BG17" s="11"/>
+      <c r="BH17" s="11"/>
+      <c r="BI17" s="11"/>
+      <c r="BJ17" s="11"/>
+      <c r="BK17" s="11"/>
+      <c r="BL17" s="11"/>
+      <c r="BM17" s="11"/>
+      <c r="BN17" s="11"/>
+      <c r="BO17" s="11"/>
+      <c r="BP17" s="11"/>
+      <c r="BQ17" s="11"/>
+      <c r="BR17" s="11"/>
+      <c r="BS17" s="11"/>
+      <c r="BT17" s="11"/>
+      <c r="BU17" s="11"/>
+      <c r="BV17" s="11"/>
+      <c r="BW17" s="11"/>
+      <c r="BX17" s="11"/>
+      <c r="BY17" s="11"/>
+      <c r="BZ17" s="11"/>
+    </row>
+    <row r="18" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,7 +2462,7 @@
       <c r="BY18" s="1"/>
       <c r="BZ18" s="1"/>
     </row>
-    <row r="19" spans="1:78">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -2502,203 +2561,203 @@
       <c r="BY19" s="1"/>
       <c r="BZ19" s="1"/>
     </row>
-    <row r="20" spans="1:78" s="15" customFormat="1">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
         <v>14</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
         <f>SUM(F20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11">
         <f>SUM(J20:L20)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14" t="s">
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14" t="s">
+      <c r="U20" s="11"/>
+      <c r="V20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W20" s="14"/>
-      <c r="Z20" s="16">
+      <c r="W20" s="11"/>
+      <c r="Z20" s="13">
         <v>36701</v>
       </c>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14">
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11">
         <f>SUM(AB20,M20)</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="14"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="14"/>
-      <c r="BG20" s="14"/>
-      <c r="BH20" s="14"/>
-      <c r="BI20" s="14"/>
-      <c r="BJ20" s="14"/>
-      <c r="BK20" s="14"/>
-      <c r="BL20" s="14"/>
-      <c r="BM20" s="14"/>
-      <c r="BN20" s="14"/>
-      <c r="BO20" s="14"/>
-      <c r="BP20" s="14"/>
-      <c r="BQ20" s="14"/>
-      <c r="BR20" s="14"/>
-      <c r="BS20" s="14"/>
-      <c r="BT20" s="14"/>
-      <c r="BU20" s="14"/>
-      <c r="BV20" s="14"/>
-      <c r="BW20" s="14"/>
-      <c r="BX20" s="14"/>
-      <c r="BY20" s="14"/>
-      <c r="BZ20" s="14"/>
-    </row>
-    <row r="21" spans="1:78" s="15" customFormat="1">
-      <c r="A21" s="14" t="s">
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="11"/>
+      <c r="BK20" s="11"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="11"/>
+      <c r="BN20" s="11"/>
+      <c r="BO20" s="11"/>
+      <c r="BP20" s="11"/>
+      <c r="BQ20" s="11"/>
+      <c r="BR20" s="11"/>
+      <c r="BS20" s="11"/>
+      <c r="BT20" s="11"/>
+      <c r="BU20" s="11"/>
+      <c r="BV20" s="11"/>
+      <c r="BW20" s="11"/>
+      <c r="BX20" s="11"/>
+      <c r="BY20" s="11"/>
+      <c r="BZ20" s="11"/>
+    </row>
+    <row r="21" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
         <v>21</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11">
         <v>2</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14" t="s">
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="Z21" s="16">
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="Z21" s="13">
         <v>36629</v>
       </c>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14">
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="14"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="14"/>
-      <c r="AU21" s="14"/>
-      <c r="AV21" s="14"/>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="14"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="14"/>
-      <c r="BC21" s="14"/>
-      <c r="BD21" s="14"/>
-      <c r="BE21" s="14"/>
-      <c r="BF21" s="14"/>
-      <c r="BG21" s="14"/>
-      <c r="BH21" s="14"/>
-      <c r="BI21" s="14"/>
-      <c r="BJ21" s="14"/>
-      <c r="BK21" s="14"/>
-      <c r="BL21" s="14"/>
-      <c r="BM21" s="14"/>
-      <c r="BN21" s="14"/>
-      <c r="BO21" s="14"/>
-      <c r="BP21" s="14"/>
-      <c r="BQ21" s="14"/>
-      <c r="BR21" s="14"/>
-      <c r="BS21" s="14"/>
-      <c r="BT21" s="14"/>
-      <c r="BU21" s="14"/>
-      <c r="BV21" s="14"/>
-      <c r="BW21" s="14"/>
-      <c r="BX21" s="14"/>
-      <c r="BY21" s="14"/>
-      <c r="BZ21" s="14"/>
-    </row>
-    <row r="22" spans="1:78">
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
+      <c r="BF21" s="11"/>
+      <c r="BG21" s="11"/>
+      <c r="BH21" s="11"/>
+      <c r="BI21" s="11"/>
+      <c r="BJ21" s="11"/>
+      <c r="BK21" s="11"/>
+      <c r="BL21" s="11"/>
+      <c r="BM21" s="11"/>
+      <c r="BN21" s="11"/>
+      <c r="BO21" s="11"/>
+      <c r="BP21" s="11"/>
+      <c r="BQ21" s="11"/>
+      <c r="BR21" s="11"/>
+      <c r="BS21" s="11"/>
+      <c r="BT21" s="11"/>
+      <c r="BU21" s="11"/>
+      <c r="BV21" s="11"/>
+      <c r="BW21" s="11"/>
+      <c r="BX21" s="11"/>
+      <c r="BY21" s="11"/>
+      <c r="BZ21" s="11"/>
+    </row>
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2795,7 +2854,7 @@
       <c r="BY22" s="1"/>
       <c r="BZ22" s="1"/>
     </row>
-    <row r="23" spans="1:78">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2902,300 +2961,300 @@
       <c r="BY23" s="1"/>
       <c r="BZ23" s="1"/>
     </row>
-    <row r="24" spans="1:78" s="12" customFormat="1">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
         <v>30</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="1">
         <f>SUM(F24:G24)</f>
         <v>2</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
         <f>SUM(J24:L24)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11" t="s">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11" t="s">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W24" s="11"/>
-      <c r="Z24" s="13">
+      <c r="W24" s="1"/>
+      <c r="Z24" s="6">
         <v>37176</v>
       </c>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11">
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1">
         <f>SUM(AB24,M24)</f>
         <v>0</v>
       </c>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="11"/>
-      <c r="AU24" s="11"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="11"/>
-      <c r="AX24" s="11"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="11"/>
-      <c r="BB24" s="11"/>
-      <c r="BC24" s="11"/>
-      <c r="BD24" s="11"/>
-      <c r="BE24" s="11"/>
-      <c r="BF24" s="11"/>
-      <c r="BG24" s="11"/>
-      <c r="BH24" s="11"/>
-      <c r="BI24" s="11"/>
-      <c r="BJ24" s="11"/>
-      <c r="BK24" s="11"/>
-      <c r="BL24" s="11"/>
-      <c r="BM24" s="11"/>
-      <c r="BN24" s="11"/>
-      <c r="BO24" s="11"/>
-      <c r="BP24" s="11"/>
-      <c r="BQ24" s="11"/>
-      <c r="BR24" s="11"/>
-      <c r="BS24" s="11"/>
-      <c r="BT24" s="11"/>
-      <c r="BU24" s="11"/>
-      <c r="BV24" s="11"/>
-      <c r="BW24" s="11"/>
-      <c r="BX24" s="11"/>
-      <c r="BY24" s="11"/>
-      <c r="BZ24" s="11"/>
-    </row>
-    <row r="25" spans="1:78" s="15" customFormat="1">
-      <c r="A25" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14">
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+    </row>
+    <row r="25" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11">
         <v>1</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14">
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14" t="s">
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="Z25" s="16">
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="Z25" s="13">
         <v>36427</v>
       </c>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14">
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="14"/>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="14"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="14"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="14"/>
-      <c r="BC25" s="14"/>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="14"/>
-      <c r="BG25" s="14"/>
-      <c r="BH25" s="14"/>
-      <c r="BI25" s="14"/>
-      <c r="BJ25" s="14"/>
-      <c r="BK25" s="14"/>
-      <c r="BL25" s="14"/>
-      <c r="BM25" s="14"/>
-      <c r="BN25" s="14"/>
-      <c r="BO25" s="14"/>
-      <c r="BP25" s="14"/>
-      <c r="BQ25" s="14"/>
-      <c r="BR25" s="14"/>
-      <c r="BS25" s="14"/>
-      <c r="BT25" s="14"/>
-      <c r="BU25" s="14"/>
-      <c r="BV25" s="14"/>
-      <c r="BW25" s="14"/>
-      <c r="BX25" s="14"/>
-      <c r="BY25" s="14"/>
-      <c r="BZ25" s="14"/>
-    </row>
-    <row r="26" spans="1:78" s="15" customFormat="1">
-      <c r="A26" s="14" t="s">
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="11"/>
+      <c r="AZ25" s="11"/>
+      <c r="BA25" s="11"/>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="11"/>
+      <c r="BD25" s="11"/>
+      <c r="BE25" s="11"/>
+      <c r="BF25" s="11"/>
+      <c r="BG25" s="11"/>
+      <c r="BH25" s="11"/>
+      <c r="BI25" s="11"/>
+      <c r="BJ25" s="11"/>
+      <c r="BK25" s="11"/>
+      <c r="BL25" s="11"/>
+      <c r="BM25" s="11"/>
+      <c r="BN25" s="11"/>
+      <c r="BO25" s="11"/>
+      <c r="BP25" s="11"/>
+      <c r="BQ25" s="11"/>
+      <c r="BR25" s="11"/>
+      <c r="BS25" s="11"/>
+      <c r="BT25" s="11"/>
+      <c r="BU25" s="11"/>
+      <c r="BV25" s="11"/>
+      <c r="BW25" s="11"/>
+      <c r="BX25" s="11"/>
+      <c r="BY25" s="11"/>
+      <c r="BZ25" s="11"/>
+    </row>
+    <row r="26" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11">
         <v>17</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11">
         <v>1</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14" t="s">
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14" t="s">
+      <c r="U26" s="11"/>
+      <c r="V26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W26" s="14"/>
-      <c r="Z26" s="16">
+      <c r="W26" s="11"/>
+      <c r="Z26" s="13">
         <v>35697</v>
       </c>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14">
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="14"/>
-      <c r="AR26" s="14"/>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="14"/>
-      <c r="AU26" s="14"/>
-      <c r="AV26" s="14"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="14"/>
-      <c r="BC26" s="14"/>
-      <c r="BD26" s="14"/>
-      <c r="BE26" s="14"/>
-      <c r="BF26" s="14"/>
-      <c r="BG26" s="14"/>
-      <c r="BH26" s="14"/>
-      <c r="BI26" s="14"/>
-      <c r="BJ26" s="14"/>
-      <c r="BK26" s="14"/>
-      <c r="BL26" s="14"/>
-      <c r="BM26" s="14"/>
-      <c r="BN26" s="14"/>
-      <c r="BO26" s="14"/>
-      <c r="BP26" s="14"/>
-      <c r="BQ26" s="14"/>
-      <c r="BR26" s="14"/>
-      <c r="BS26" s="14"/>
-      <c r="BT26" s="14"/>
-      <c r="BU26" s="14"/>
-      <c r="BV26" s="14"/>
-      <c r="BW26" s="14"/>
-      <c r="BX26" s="14"/>
-      <c r="BY26" s="14"/>
-      <c r="BZ26" s="14"/>
-    </row>
-    <row r="27" spans="1:78">
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="11"/>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="11"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="11"/>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="11"/>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="11"/>
+      <c r="BE26" s="11"/>
+      <c r="BF26" s="11"/>
+      <c r="BG26" s="11"/>
+      <c r="BH26" s="11"/>
+      <c r="BI26" s="11"/>
+      <c r="BJ26" s="11"/>
+      <c r="BK26" s="11"/>
+      <c r="BL26" s="11"/>
+      <c r="BM26" s="11"/>
+      <c r="BN26" s="11"/>
+      <c r="BO26" s="11"/>
+      <c r="BP26" s="11"/>
+      <c r="BQ26" s="11"/>
+      <c r="BR26" s="11"/>
+      <c r="BS26" s="11"/>
+      <c r="BT26" s="11"/>
+      <c r="BU26" s="11"/>
+      <c r="BV26" s="11"/>
+      <c r="BW26" s="11"/>
+      <c r="BX26" s="11"/>
+      <c r="BY26" s="11"/>
+      <c r="BZ26" s="11"/>
+    </row>
+    <row r="27" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -3296,7 +3355,7 @@
       <c r="BY27" s="1"/>
       <c r="BZ27" s="1"/>
     </row>
-    <row r="28" spans="1:78">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3403,7 +3462,7 @@
       <c r="BY28" s="1"/>
       <c r="BZ28" s="1"/>
     </row>
-    <row r="29" spans="1:78">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3512,108 +3571,108 @@
       <c r="BY29" s="1"/>
       <c r="BZ29" s="1"/>
     </row>
-    <row r="30" spans="1:78" s="12" customFormat="1">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
         <v>7</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
         <v>4</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="1">
         <f>SUM(F30,G30)</f>
         <v>4</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
         <v>1</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="1">
         <f>SUM(J30,K30,L30)</f>
         <v>1</v>
       </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1">
         <v>1</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11" t="s">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="Z30" s="13">
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="Z30" s="6">
         <v>36431</v>
       </c>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11">
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1">
         <f>SUM(AB30,M30)</f>
         <v>1</v>
       </c>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="11"/>
-      <c r="AR30" s="11"/>
-      <c r="AS30" s="11"/>
-      <c r="AT30" s="11"/>
-      <c r="AU30" s="11"/>
-      <c r="AV30" s="11"/>
-      <c r="AW30" s="11"/>
-      <c r="AX30" s="11"/>
-      <c r="AY30" s="11"/>
-      <c r="AZ30" s="11"/>
-      <c r="BA30" s="11"/>
-      <c r="BB30" s="11"/>
-      <c r="BC30" s="11"/>
-      <c r="BD30" s="11"/>
-      <c r="BE30" s="11"/>
-      <c r="BF30" s="11"/>
-      <c r="BG30" s="11"/>
-      <c r="BH30" s="11"/>
-      <c r="BI30" s="11"/>
-      <c r="BJ30" s="11"/>
-      <c r="BK30" s="11"/>
-      <c r="BL30" s="11"/>
-      <c r="BM30" s="11"/>
-      <c r="BN30" s="11"/>
-      <c r="BO30" s="11"/>
-      <c r="BP30" s="11"/>
-      <c r="BQ30" s="11"/>
-      <c r="BR30" s="11"/>
-      <c r="BS30" s="11"/>
-      <c r="BT30" s="11"/>
-      <c r="BU30" s="11"/>
-      <c r="BV30" s="11"/>
-      <c r="BW30" s="11"/>
-      <c r="BX30" s="11"/>
-      <c r="BY30" s="11"/>
-      <c r="BZ30" s="11"/>
-    </row>
-    <row r="31" spans="1:78">
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+    </row>
+    <row r="31" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3716,458 +3775,458 @@
       <c r="BY31" s="1"/>
       <c r="BZ31" s="1"/>
     </row>
-    <row r="32" spans="1:78" s="20" customFormat="1">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:78" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16">
         <v>31</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16">
         <v>2</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16">
         <f>SUM(F32:G32)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19">
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16">
         <f>SUM(J32:L32)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19" t="s">
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19" t="s">
+      <c r="U32" s="16"/>
+      <c r="V32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="W32" s="19"/>
-      <c r="Z32" s="21">
+      <c r="W32" s="16"/>
+      <c r="Z32" s="18">
         <v>36581</v>
       </c>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19">
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16">
         <v>6</v>
       </c>
-      <c r="AC32" s="19">
+      <c r="AC32" s="16">
         <f>SUM(AB32,M32)</f>
         <v>6</v>
       </c>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="19"/>
-      <c r="AO32" s="19"/>
-      <c r="AP32" s="19"/>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="19"/>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="19"/>
-      <c r="AU32" s="19"/>
-      <c r="AV32" s="19"/>
-      <c r="AW32" s="19"/>
-      <c r="AX32" s="19"/>
-      <c r="AY32" s="19"/>
-      <c r="AZ32" s="19"/>
-      <c r="BA32" s="19"/>
-      <c r="BB32" s="19"/>
-      <c r="BC32" s="19"/>
-      <c r="BD32" s="19"/>
-      <c r="BE32" s="19"/>
-      <c r="BF32" s="19"/>
-      <c r="BG32" s="19"/>
-      <c r="BH32" s="19"/>
-      <c r="BI32" s="19"/>
-      <c r="BJ32" s="19"/>
-      <c r="BK32" s="19"/>
-      <c r="BL32" s="19"/>
-      <c r="BM32" s="19"/>
-      <c r="BN32" s="19"/>
-      <c r="BO32" s="19"/>
-      <c r="BP32" s="19"/>
-      <c r="BQ32" s="19"/>
-      <c r="BR32" s="19"/>
-      <c r="BS32" s="19"/>
-      <c r="BT32" s="19"/>
-      <c r="BU32" s="19"/>
-      <c r="BV32" s="19"/>
-      <c r="BW32" s="19"/>
-      <c r="BX32" s="19"/>
-      <c r="BY32" s="19"/>
-      <c r="BZ32" s="19"/>
-    </row>
-    <row r="33" spans="1:78" s="15" customFormat="1">
-      <c r="A33" s="14" t="s">
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16"/>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="16"/>
+      <c r="AS32" s="16"/>
+      <c r="AT32" s="16"/>
+      <c r="AU32" s="16"/>
+      <c r="AV32" s="16"/>
+      <c r="AW32" s="16"/>
+      <c r="AX32" s="16"/>
+      <c r="AY32" s="16"/>
+      <c r="AZ32" s="16"/>
+      <c r="BA32" s="16"/>
+      <c r="BB32" s="16"/>
+      <c r="BC32" s="16"/>
+      <c r="BD32" s="16"/>
+      <c r="BE32" s="16"/>
+      <c r="BF32" s="16"/>
+      <c r="BG32" s="16"/>
+      <c r="BH32" s="16"/>
+      <c r="BI32" s="16"/>
+      <c r="BJ32" s="16"/>
+      <c r="BK32" s="16"/>
+      <c r="BL32" s="16"/>
+      <c r="BM32" s="16"/>
+      <c r="BN32" s="16"/>
+      <c r="BO32" s="16"/>
+      <c r="BP32" s="16"/>
+      <c r="BQ32" s="16"/>
+      <c r="BR32" s="16"/>
+      <c r="BS32" s="16"/>
+      <c r="BT32" s="16"/>
+      <c r="BU32" s="16"/>
+      <c r="BV32" s="16"/>
+      <c r="BW32" s="16"/>
+      <c r="BX32" s="16"/>
+      <c r="BY32" s="16"/>
+      <c r="BZ32" s="16"/>
+    </row>
+    <row r="33" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11">
         <v>10</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14" t="s">
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14" t="s">
+      <c r="U33" s="11"/>
+      <c r="V33" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="W33" s="14"/>
-      <c r="Z33" s="16">
+      <c r="W33" s="11"/>
+      <c r="Z33" s="13">
         <v>36716</v>
       </c>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14">
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11">
         <v>2</v>
       </c>
-      <c r="AC33" s="14">
+      <c r="AC33" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="14"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="14"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="14"/>
-      <c r="AT33" s="14"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="14"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="14"/>
-      <c r="BB33" s="14"/>
-      <c r="BC33" s="14"/>
-      <c r="BD33" s="14"/>
-      <c r="BE33" s="14"/>
-      <c r="BF33" s="14"/>
-      <c r="BG33" s="14"/>
-      <c r="BH33" s="14"/>
-      <c r="BI33" s="14"/>
-      <c r="BJ33" s="14"/>
-      <c r="BK33" s="14"/>
-      <c r="BL33" s="14"/>
-      <c r="BM33" s="14"/>
-      <c r="BN33" s="14"/>
-      <c r="BO33" s="14"/>
-      <c r="BP33" s="14"/>
-      <c r="BQ33" s="14"/>
-      <c r="BR33" s="14"/>
-      <c r="BS33" s="14"/>
-      <c r="BT33" s="14"/>
-      <c r="BU33" s="14"/>
-      <c r="BV33" s="14"/>
-      <c r="BW33" s="14"/>
-      <c r="BX33" s="14"/>
-      <c r="BY33" s="14"/>
-      <c r="BZ33" s="14"/>
-    </row>
-    <row r="34" spans="1:78" s="15" customFormat="1">
-      <c r="A34" s="14" t="s">
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="11"/>
+      <c r="BE33" s="11"/>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="11"/>
+      <c r="BH33" s="11"/>
+      <c r="BI33" s="11"/>
+      <c r="BJ33" s="11"/>
+      <c r="BK33" s="11"/>
+      <c r="BL33" s="11"/>
+      <c r="BM33" s="11"/>
+      <c r="BN33" s="11"/>
+      <c r="BO33" s="11"/>
+      <c r="BP33" s="11"/>
+      <c r="BQ33" s="11"/>
+      <c r="BR33" s="11"/>
+      <c r="BS33" s="11"/>
+      <c r="BT33" s="11"/>
+      <c r="BU33" s="11"/>
+      <c r="BV33" s="11"/>
+      <c r="BW33" s="11"/>
+      <c r="BX33" s="11"/>
+      <c r="BY33" s="11"/>
+      <c r="BZ33" s="11"/>
+    </row>
+    <row r="34" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11">
         <v>1</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14">
+      <c r="G34" s="11"/>
+      <c r="H34" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14">
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11">
         <f>SUM(J34,K34,L34)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14" t="s">
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="Z34" s="16">
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="Z34" s="13">
         <v>37506</v>
       </c>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14">
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
-      <c r="BG34" s="14"/>
-      <c r="BH34" s="14"/>
-      <c r="BI34" s="14"/>
-      <c r="BJ34" s="14"/>
-      <c r="BK34" s="14"/>
-      <c r="BL34" s="14"/>
-      <c r="BM34" s="14"/>
-      <c r="BN34" s="14"/>
-      <c r="BO34" s="14"/>
-      <c r="BP34" s="14"/>
-      <c r="BQ34" s="14"/>
-      <c r="BR34" s="14"/>
-      <c r="BS34" s="14"/>
-      <c r="BT34" s="14"/>
-      <c r="BU34" s="14"/>
-      <c r="BV34" s="14"/>
-      <c r="BW34" s="14"/>
-      <c r="BX34" s="14"/>
-      <c r="BY34" s="14"/>
-      <c r="BZ34" s="14"/>
-    </row>
-    <row r="35" spans="1:78" s="12" customFormat="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
-      <c r="AI35" s="11"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="11"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="11"/>
-      <c r="AO35" s="11"/>
-      <c r="AP35" s="11"/>
-      <c r="AQ35" s="11"/>
-      <c r="AR35" s="11"/>
-      <c r="AS35" s="11"/>
-      <c r="AT35" s="11"/>
-      <c r="AU35" s="11"/>
-      <c r="AV35" s="11"/>
-      <c r="AW35" s="11"/>
-      <c r="AX35" s="11"/>
-      <c r="AY35" s="11"/>
-      <c r="AZ35" s="11"/>
-      <c r="BA35" s="11"/>
-      <c r="BB35" s="11"/>
-      <c r="BC35" s="11"/>
-      <c r="BD35" s="11"/>
-      <c r="BE35" s="11"/>
-      <c r="BF35" s="11"/>
-      <c r="BG35" s="11"/>
-      <c r="BH35" s="11"/>
-      <c r="BI35" s="11"/>
-      <c r="BJ35" s="11"/>
-      <c r="BK35" s="11"/>
-      <c r="BL35" s="11"/>
-      <c r="BM35" s="11"/>
-      <c r="BN35" s="11"/>
-      <c r="BO35" s="11"/>
-      <c r="BP35" s="11"/>
-      <c r="BQ35" s="11"/>
-      <c r="BR35" s="11"/>
-      <c r="BS35" s="11"/>
-      <c r="BT35" s="11"/>
-      <c r="BU35" s="11"/>
-      <c r="BV35" s="11"/>
-      <c r="BW35" s="11"/>
-      <c r="BX35" s="11"/>
-      <c r="BY35" s="11"/>
-      <c r="BZ35" s="11"/>
-    </row>
-    <row r="36" spans="1:78" s="12" customFormat="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="11"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="11"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="11"/>
-      <c r="AQ36" s="11"/>
-      <c r="AR36" s="11"/>
-      <c r="AS36" s="11"/>
-      <c r="AT36" s="11"/>
-      <c r="AU36" s="11"/>
-      <c r="AV36" s="11"/>
-      <c r="AW36" s="11"/>
-      <c r="AX36" s="11"/>
-      <c r="AY36" s="11"/>
-      <c r="AZ36" s="11"/>
-      <c r="BA36" s="11"/>
-      <c r="BB36" s="11"/>
-      <c r="BC36" s="11"/>
-      <c r="BD36" s="11"/>
-      <c r="BE36" s="11"/>
-      <c r="BF36" s="11"/>
-      <c r="BG36" s="11"/>
-      <c r="BH36" s="11"/>
-      <c r="BI36" s="11"/>
-      <c r="BJ36" s="11"/>
-      <c r="BK36" s="11"/>
-      <c r="BL36" s="11"/>
-      <c r="BM36" s="11"/>
-      <c r="BN36" s="11"/>
-      <c r="BO36" s="11"/>
-      <c r="BP36" s="11"/>
-      <c r="BQ36" s="11"/>
-      <c r="BR36" s="11"/>
-      <c r="BS36" s="11"/>
-      <c r="BT36" s="11"/>
-      <c r="BU36" s="11"/>
-      <c r="BV36" s="11"/>
-      <c r="BW36" s="11"/>
-      <c r="BX36" s="11"/>
-      <c r="BY36" s="11"/>
-      <c r="BZ36" s="11"/>
-    </row>
-    <row r="37" spans="1:78">
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="11"/>
+      <c r="BD34" s="11"/>
+      <c r="BE34" s="11"/>
+      <c r="BF34" s="11"/>
+      <c r="BG34" s="11"/>
+      <c r="BH34" s="11"/>
+      <c r="BI34" s="11"/>
+      <c r="BJ34" s="11"/>
+      <c r="BK34" s="11"/>
+      <c r="BL34" s="11"/>
+      <c r="BM34" s="11"/>
+      <c r="BN34" s="11"/>
+      <c r="BO34" s="11"/>
+      <c r="BP34" s="11"/>
+      <c r="BQ34" s="11"/>
+      <c r="BR34" s="11"/>
+      <c r="BS34" s="11"/>
+      <c r="BT34" s="11"/>
+      <c r="BU34" s="11"/>
+      <c r="BV34" s="11"/>
+      <c r="BW34" s="11"/>
+      <c r="BX34" s="11"/>
+      <c r="BY34" s="11"/>
+      <c r="BZ34" s="11"/>
+    </row>
+    <row r="35" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+    </row>
+    <row r="36" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+    </row>
+    <row r="37" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4245,7 +4304,7 @@
       <c r="BY37" s="1"/>
       <c r="BZ37" s="1"/>
     </row>
-    <row r="38" spans="1:78">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4323,7 +4382,7 @@
       <c r="BY38" s="1"/>
       <c r="BZ38" s="1"/>
     </row>
-    <row r="39" spans="1:78">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -4403,7 +4462,7 @@
       <c r="BY39" s="1"/>
       <c r="BZ39" s="1"/>
     </row>
-    <row r="40" spans="1:78">
+    <row r="40" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4481,7 +4540,7 @@
       <c r="BY40" s="1"/>
       <c r="BZ40" s="1"/>
     </row>
-    <row r="41" spans="1:78">
+    <row r="41" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>75</v>
       </c>
@@ -4567,7 +4626,7 @@
       <c r="BY41" s="1"/>
       <c r="BZ41" s="1"/>
     </row>
-    <row r="42" spans="1:78">
+    <row r="42" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4647,7 +4706,7 @@
       <c r="BY42" s="1"/>
       <c r="BZ42" s="1"/>
     </row>
-    <row r="43" spans="1:78">
+    <row r="43" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4725,7 +4784,7 @@
       <c r="BY43" s="1"/>
       <c r="BZ43" s="1"/>
     </row>
-    <row r="44" spans="1:78">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>83</v>
       </c>
@@ -4811,7 +4870,7 @@
       <c r="BY44" s="1"/>
       <c r="BZ44" s="1"/>
     </row>
-    <row r="45" spans="1:78">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4891,7 +4950,7 @@
       <c r="BY45" s="1"/>
       <c r="BZ45" s="1"/>
     </row>
-    <row r="46" spans="1:78">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4969,7 +5028,7 @@
       <c r="BY46" s="1"/>
       <c r="BZ46" s="1"/>
     </row>
-    <row r="47" spans="1:78">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -5049,7 +5108,7 @@
       <c r="BY47" s="1"/>
       <c r="BZ47" s="1"/>
     </row>
-    <row r="48" spans="1:78">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5127,7 +5186,7 @@
       <c r="BY48" s="1"/>
       <c r="BZ48" s="1"/>
     </row>
-    <row r="49" spans="1:78">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>94</v>
       </c>
@@ -5215,7 +5274,7 @@
       <c r="BY49" s="1"/>
       <c r="BZ49" s="1"/>
     </row>
-    <row r="50" spans="1:78">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
@@ -5297,7 +5356,7 @@
       <c r="BY50" s="1"/>
       <c r="BZ50" s="1"/>
     </row>
-    <row r="51" spans="1:78">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
@@ -5379,7 +5438,7 @@
       <c r="BY51" s="1"/>
       <c r="BZ51" s="1"/>
     </row>
-    <row r="52" spans="1:78">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5459,7 +5518,7 @@
       <c r="BY52" s="1"/>
       <c r="BZ52" s="1"/>
     </row>
-    <row r="53" spans="1:78">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>99</v>
       </c>
@@ -5547,7 +5606,7 @@
       <c r="BY53" s="1"/>
       <c r="BZ53" s="1"/>
     </row>
-    <row r="54" spans="1:78">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
@@ -5629,7 +5688,7 @@
       <c r="BY54" s="1"/>
       <c r="BZ54" s="1"/>
     </row>
-    <row r="55" spans="1:78">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5709,7 +5768,7 @@
       <c r="BY55" s="1"/>
       <c r="BZ55" s="1"/>
     </row>
-    <row r="56" spans="1:78">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>107</v>
       </c>
@@ -5797,11 +5856,11 @@
       <c r="BY56" s="1"/>
       <c r="BZ56" s="1"/>
     </row>
-    <row r="57" spans="1:78">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5879,11 +5938,11 @@
       <c r="BY57" s="1"/>
       <c r="BZ57" s="1"/>
     </row>
-    <row r="58" spans="1:78">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5961,7 +6020,7 @@
       <c r="BY58" s="1"/>
       <c r="BZ58" s="1"/>
     </row>
-    <row r="59" spans="1:78">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6041,9 +6100,9 @@
       <c r="BY59" s="1"/>
       <c r="BZ59" s="1"/>
     </row>
-    <row r="60" spans="1:78">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
@@ -6051,7 +6110,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>96</v>
@@ -6129,11 +6188,11 @@
       <c r="BY60" s="1"/>
       <c r="BZ60" s="1"/>
     </row>
-    <row r="61" spans="1:78">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -6211,11 +6270,11 @@
       <c r="BY61" s="1"/>
       <c r="BZ61" s="1"/>
     </row>
-    <row r="62" spans="1:78">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -6293,11 +6352,11 @@
       <c r="BY62" s="1"/>
       <c r="BZ62" s="1"/>
     </row>
-    <row r="63" spans="1:78">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -6375,7 +6434,7 @@
       <c r="BY63" s="1"/>
       <c r="BZ63" s="1"/>
     </row>
-    <row r="64" spans="1:78">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -6455,9 +6514,9 @@
       <c r="BY64" s="1"/>
       <c r="BZ64" s="1"/>
     </row>
-    <row r="65" spans="1:78">
+    <row r="65" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
@@ -6465,10 +6524,10 @@
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -6543,11 +6602,11 @@
       <c r="BY65" s="1"/>
       <c r="BZ65" s="1"/>
     </row>
-    <row r="66" spans="1:78">
+    <row r="66" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -6625,7 +6684,7 @@
       <c r="BY66" s="1"/>
       <c r="BZ66" s="1"/>
     </row>
-    <row r="67" spans="1:78">
+    <row r="67" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
@@ -6707,7 +6766,7 @@
       <c r="BY67" s="1"/>
       <c r="BZ67" s="1"/>
     </row>
-    <row r="68" spans="1:78">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6787,17 +6846,17 @@
       <c r="BY68" s="1"/>
       <c r="BZ68" s="1"/>
     </row>
-    <row r="69" spans="1:78">
+    <row r="69" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>78</v>
@@ -6875,14 +6934,14 @@
       <c r="BY69" s="1"/>
       <c r="BZ69" s="1"/>
     </row>
-    <row r="70" spans="1:78">
+    <row r="70" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -6957,7 +7016,7 @@
       <c r="BY70" s="1"/>
       <c r="BZ70" s="1"/>
     </row>
-    <row r="71" spans="1:78">
+    <row r="71" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -7039,7 +7098,7 @@
       <c r="BY71" s="1"/>
       <c r="BZ71" s="1"/>
     </row>
-    <row r="72" spans="1:78">
+    <row r="72" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -7119,17 +7178,17 @@
       <c r="BY72" s="1"/>
       <c r="BZ72" s="1"/>
     </row>
-    <row r="73" spans="1:78">
+    <row r="73" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>78</v>
@@ -7207,7 +7266,7 @@
       <c r="BY73" s="1"/>
       <c r="BZ73" s="1"/>
     </row>
-    <row r="74" spans="1:78">
+    <row r="74" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -7287,7 +7346,7 @@
       <c r="BY74" s="1"/>
       <c r="BZ74" s="1"/>
     </row>
-    <row r="75" spans="1:78">
+    <row r="75" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -7367,7 +7426,7 @@
       <c r="BY75" s="1"/>
       <c r="BZ75" s="1"/>
     </row>
-    <row r="76" spans="1:78">
+    <row r="76" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -7447,7 +7506,7 @@
       <c r="BY76" s="1"/>
       <c r="BZ76" s="1"/>
     </row>
-    <row r="77" spans="1:78">
+    <row r="77" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -7527,7 +7586,7 @@
       <c r="BY77" s="1"/>
       <c r="BZ77" s="1"/>
     </row>
-    <row r="78" spans="1:78">
+    <row r="78" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -7607,7 +7666,7 @@
       <c r="BY78" s="1"/>
       <c r="BZ78" s="1"/>
     </row>
-    <row r="79" spans="1:78">
+    <row r="79" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -7687,7 +7746,7 @@
       <c r="BY79" s="1"/>
       <c r="BZ79" s="1"/>
     </row>
-    <row r="80" spans="1:78">
+    <row r="80" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -7767,7 +7826,7 @@
       <c r="BY80" s="1"/>
       <c r="BZ80" s="1"/>
     </row>
-    <row r="81" spans="1:78">
+    <row r="81" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -7847,7 +7906,7 @@
       <c r="BY81" s="1"/>
       <c r="BZ81" s="1"/>
     </row>
-    <row r="82" spans="1:78">
+    <row r="82" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -7927,7 +7986,7 @@
       <c r="BY82" s="1"/>
       <c r="BZ82" s="1"/>
     </row>
-    <row r="83" spans="1:78">
+    <row r="83" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -8007,7 +8066,7 @@
       <c r="BY83" s="1"/>
       <c r="BZ83" s="1"/>
     </row>
-    <row r="84" spans="1:78">
+    <row r="84" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -8087,7 +8146,7 @@
       <c r="BY84" s="1"/>
       <c r="BZ84" s="1"/>
     </row>
-    <row r="85" spans="1:78">
+    <row r="85" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -8167,7 +8226,7 @@
       <c r="BY85" s="1"/>
       <c r="BZ85" s="1"/>
     </row>
-    <row r="86" spans="1:78">
+    <row r="86" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -8247,7 +8306,7 @@
       <c r="BY86" s="1"/>
       <c r="BZ86" s="1"/>
     </row>
-    <row r="87" spans="1:78">
+    <row r="87" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -8327,7 +8386,7 @@
       <c r="BY87" s="1"/>
       <c r="BZ87" s="1"/>
     </row>
-    <row r="88" spans="1:78">
+    <row r="88" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -8407,7 +8466,7 @@
       <c r="BY88" s="1"/>
       <c r="BZ88" s="1"/>
     </row>
-    <row r="89" spans="1:78">
+    <row r="89" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -8487,7 +8546,7 @@
       <c r="BY89" s="1"/>
       <c r="BZ89" s="1"/>
     </row>
-    <row r="90" spans="1:78">
+    <row r="90" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -8567,7 +8626,7 @@
       <c r="BY90" s="1"/>
       <c r="BZ90" s="1"/>
     </row>
-    <row r="91" spans="1:78">
+    <row r="91" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -8647,7 +8706,7 @@
       <c r="BY91" s="1"/>
       <c r="BZ91" s="1"/>
     </row>
-    <row r="92" spans="1:78">
+    <row r="92" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -8727,7 +8786,7 @@
       <c r="BY92" s="1"/>
       <c r="BZ92" s="1"/>
     </row>
-    <row r="93" spans="1:78">
+    <row r="93" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -8807,7 +8866,7 @@
       <c r="BY93" s="1"/>
       <c r="BZ93" s="1"/>
     </row>
-    <row r="94" spans="1:78">
+    <row r="94" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -8887,7 +8946,7 @@
       <c r="BY94" s="1"/>
       <c r="BZ94" s="1"/>
     </row>
-    <row r="95" spans="1:78">
+    <row r="95" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -8967,7 +9026,7 @@
       <c r="BY95" s="1"/>
       <c r="BZ95" s="1"/>
     </row>
-    <row r="96" spans="1:78">
+    <row r="96" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -9047,7 +9106,7 @@
       <c r="BY96" s="1"/>
       <c r="BZ96" s="1"/>
     </row>
-    <row r="97" spans="1:78">
+    <row r="97" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -9127,7 +9186,7 @@
       <c r="BY97" s="1"/>
       <c r="BZ97" s="1"/>
     </row>
-    <row r="98" spans="1:78">
+    <row r="98" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -9207,7 +9266,7 @@
       <c r="BY98" s="1"/>
       <c r="BZ98" s="1"/>
     </row>
-    <row r="99" spans="1:78">
+    <row r="99" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -9287,7 +9346,7 @@
       <c r="BY99" s="1"/>
       <c r="BZ99" s="1"/>
     </row>
-    <row r="100" spans="1:78">
+    <row r="100" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -9367,7 +9426,7 @@
       <c r="BY100" s="1"/>
       <c r="BZ100" s="1"/>
     </row>
-    <row r="101" spans="1:78">
+    <row r="101" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -9447,7 +9506,7 @@
       <c r="BY101" s="1"/>
       <c r="BZ101" s="1"/>
     </row>
-    <row r="102" spans="1:78">
+    <row r="102" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -9527,7 +9586,7 @@
       <c r="BY102" s="1"/>
       <c r="BZ102" s="1"/>
     </row>
-    <row r="103" spans="1:78">
+    <row r="103" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -9607,7 +9666,7 @@
       <c r="BY103" s="1"/>
       <c r="BZ103" s="1"/>
     </row>
-    <row r="104" spans="1:78">
+    <row r="104" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -9687,7 +9746,7 @@
       <c r="BY104" s="1"/>
       <c r="BZ104" s="1"/>
     </row>
-    <row r="105" spans="1:78">
+    <row r="105" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -9767,7 +9826,7 @@
       <c r="BY105" s="1"/>
       <c r="BZ105" s="1"/>
     </row>
-    <row r="106" spans="1:78">
+    <row r="106" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -9847,7 +9906,7 @@
       <c r="BY106" s="1"/>
       <c r="BZ106" s="1"/>
     </row>
-    <row r="107" spans="1:78">
+    <row r="107" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -9927,7 +9986,7 @@
       <c r="BY107" s="1"/>
       <c r="BZ107" s="1"/>
     </row>
-    <row r="108" spans="1:78">
+    <row r="108" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -10007,7 +10066,7 @@
       <c r="BY108" s="1"/>
       <c r="BZ108" s="1"/>
     </row>
-    <row r="109" spans="1:78">
+    <row r="109" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -10087,7 +10146,7 @@
       <c r="BY109" s="1"/>
       <c r="BZ109" s="1"/>
     </row>
-    <row r="110" spans="1:78">
+    <row r="110" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -10167,7 +10226,7 @@
       <c r="BY110" s="1"/>
       <c r="BZ110" s="1"/>
     </row>
-    <row r="111" spans="1:78">
+    <row r="111" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -10247,7 +10306,7 @@
       <c r="BY111" s="1"/>
       <c r="BZ111" s="1"/>
     </row>
-    <row r="112" spans="1:78">
+    <row r="112" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -10327,7 +10386,7 @@
       <c r="BY112" s="1"/>
       <c r="BZ112" s="1"/>
     </row>
-    <row r="113" spans="1:78">
+    <row r="113" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -10407,7 +10466,7 @@
       <c r="BY113" s="1"/>
       <c r="BZ113" s="1"/>
     </row>
-    <row r="114" spans="1:78">
+    <row r="114" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -10487,7 +10546,7 @@
       <c r="BY114" s="1"/>
       <c r="BZ114" s="1"/>
     </row>
-    <row r="115" spans="1:78">
+    <row r="115" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -10567,7 +10626,7 @@
       <c r="BY115" s="1"/>
       <c r="BZ115" s="1"/>
     </row>
-    <row r="116" spans="1:78">
+    <row r="116" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -10647,7 +10706,7 @@
       <c r="BY116" s="1"/>
       <c r="BZ116" s="1"/>
     </row>
-    <row r="117" spans="1:78">
+    <row r="117" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -10727,7 +10786,7 @@
       <c r="BY117" s="1"/>
       <c r="BZ117" s="1"/>
     </row>
-    <row r="118" spans="1:78">
+    <row r="118" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -10807,7 +10866,7 @@
       <c r="BY118" s="1"/>
       <c r="BZ118" s="1"/>
     </row>
-    <row r="119" spans="1:78">
+    <row r="119" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -10887,7 +10946,7 @@
       <c r="BY119" s="1"/>
       <c r="BZ119" s="1"/>
     </row>
-    <row r="120" spans="1:78">
+    <row r="120" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -10967,7 +11026,7 @@
       <c r="BY120" s="1"/>
       <c r="BZ120" s="1"/>
     </row>
-    <row r="121" spans="1:78">
+    <row r="121" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -11047,7 +11106,7 @@
       <c r="BY121" s="1"/>
       <c r="BZ121" s="1"/>
     </row>
-    <row r="122" spans="1:78">
+    <row r="122" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -11127,7 +11186,7 @@
       <c r="BY122" s="1"/>
       <c r="BZ122" s="1"/>
     </row>
-    <row r="123" spans="1:78">
+    <row r="123" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -11207,7 +11266,7 @@
       <c r="BY123" s="1"/>
       <c r="BZ123" s="1"/>
     </row>
-    <row r="124" spans="1:78">
+    <row r="124" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -11287,7 +11346,7 @@
       <c r="BY124" s="1"/>
       <c r="BZ124" s="1"/>
     </row>
-    <row r="125" spans="1:78">
+    <row r="125" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -11367,7 +11426,7 @@
       <c r="BY125" s="1"/>
       <c r="BZ125" s="1"/>
     </row>
-    <row r="126" spans="1:78">
+    <row r="126" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -11447,7 +11506,7 @@
       <c r="BY126" s="1"/>
       <c r="BZ126" s="1"/>
     </row>
-    <row r="127" spans="1:78">
+    <row r="127" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -11527,7 +11586,7 @@
       <c r="BY127" s="1"/>
       <c r="BZ127" s="1"/>
     </row>
-    <row r="128" spans="1:78">
+    <row r="128" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -11607,7 +11666,7 @@
       <c r="BY128" s="1"/>
       <c r="BZ128" s="1"/>
     </row>
-    <row r="129" spans="1:78">
+    <row r="129" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -11687,7 +11746,7 @@
       <c r="BY129" s="1"/>
       <c r="BZ129" s="1"/>
     </row>
-    <row r="130" spans="1:78">
+    <row r="130" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -11767,7 +11826,7 @@
       <c r="BY130" s="1"/>
       <c r="BZ130" s="1"/>
     </row>
-    <row r="131" spans="1:78">
+    <row r="131" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -11847,7 +11906,7 @@
       <c r="BY131" s="1"/>
       <c r="BZ131" s="1"/>
     </row>
-    <row r="132" spans="1:78">
+    <row r="132" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -11927,7 +11986,7 @@
       <c r="BY132" s="1"/>
       <c r="BZ132" s="1"/>
     </row>
-    <row r="133" spans="1:78">
+    <row r="133" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -12007,7 +12066,7 @@
       <c r="BY133" s="1"/>
       <c r="BZ133" s="1"/>
     </row>
-    <row r="134" spans="1:78">
+    <row r="134" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -12087,7 +12146,7 @@
       <c r="BY134" s="1"/>
       <c r="BZ134" s="1"/>
     </row>
-    <row r="135" spans="1:78">
+    <row r="135" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -12167,7 +12226,7 @@
       <c r="BY135" s="1"/>
       <c r="BZ135" s="1"/>
     </row>
-    <row r="136" spans="1:78">
+    <row r="136" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -12247,7 +12306,7 @@
       <c r="BY136" s="1"/>
       <c r="BZ136" s="1"/>
     </row>
-    <row r="137" spans="1:78">
+    <row r="137" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -12327,7 +12386,7 @@
       <c r="BY137" s="1"/>
       <c r="BZ137" s="1"/>
     </row>
-    <row r="138" spans="1:78">
+    <row r="138" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -12407,7 +12466,7 @@
       <c r="BY138" s="1"/>
       <c r="BZ138" s="1"/>
     </row>
-    <row r="139" spans="1:78">
+    <row r="139" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -12487,7 +12546,7 @@
       <c r="BY139" s="1"/>
       <c r="BZ139" s="1"/>
     </row>
-    <row r="140" spans="1:78">
+    <row r="140" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -12567,7 +12626,7 @@
       <c r="BY140" s="1"/>
       <c r="BZ140" s="1"/>
     </row>
-    <row r="141" spans="1:78">
+    <row r="141" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -12647,7 +12706,7 @@
       <c r="BY141" s="1"/>
       <c r="BZ141" s="1"/>
     </row>
-    <row r="142" spans="1:78">
+    <row r="142" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -12727,7 +12786,7 @@
       <c r="BY142" s="1"/>
       <c r="BZ142" s="1"/>
     </row>
-    <row r="143" spans="1:78">
+    <row r="143" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -12807,7 +12866,7 @@
       <c r="BY143" s="1"/>
       <c r="BZ143" s="1"/>
     </row>
-    <row r="144" spans="1:78">
+    <row r="144" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -12887,7 +12946,7 @@
       <c r="BY144" s="1"/>
       <c r="BZ144" s="1"/>
     </row>
-    <row r="145" spans="1:78">
+    <row r="145" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -12967,7 +13026,7 @@
       <c r="BY145" s="1"/>
       <c r="BZ145" s="1"/>
     </row>
-    <row r="146" spans="1:78">
+    <row r="146" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -13047,7 +13106,7 @@
       <c r="BY146" s="1"/>
       <c r="BZ146" s="1"/>
     </row>
-    <row r="147" spans="1:78">
+    <row r="147" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -13127,7 +13186,7 @@
       <c r="BY147" s="1"/>
       <c r="BZ147" s="1"/>
     </row>
-    <row r="148" spans="1:78">
+    <row r="148" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -13207,7 +13266,7 @@
       <c r="BY148" s="1"/>
       <c r="BZ148" s="1"/>
     </row>
-    <row r="149" spans="1:78">
+    <row r="149" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -13287,7 +13346,7 @@
       <c r="BY149" s="1"/>
       <c r="BZ149" s="1"/>
     </row>
-    <row r="150" spans="1:78">
+    <row r="150" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -13367,7 +13426,7 @@
       <c r="BY150" s="1"/>
       <c r="BZ150" s="1"/>
     </row>
-    <row r="151" spans="1:78">
+    <row r="151" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -13447,7 +13506,7 @@
       <c r="BY151" s="1"/>
       <c r="BZ151" s="1"/>
     </row>
-    <row r="152" spans="1:78">
+    <row r="152" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -13527,7 +13586,7 @@
       <c r="BY152" s="1"/>
       <c r="BZ152" s="1"/>
     </row>
-    <row r="153" spans="1:78">
+    <row r="153" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -13607,7 +13666,7 @@
       <c r="BY153" s="1"/>
       <c r="BZ153" s="1"/>
     </row>
-    <row r="154" spans="1:78">
+    <row r="154" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -13687,7 +13746,7 @@
       <c r="BY154" s="1"/>
       <c r="BZ154" s="1"/>
     </row>
-    <row r="155" spans="1:78">
+    <row r="155" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -13767,7 +13826,7 @@
       <c r="BY155" s="1"/>
       <c r="BZ155" s="1"/>
     </row>
-    <row r="156" spans="1:78">
+    <row r="156" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -13847,7 +13906,7 @@
       <c r="BY156" s="1"/>
       <c r="BZ156" s="1"/>
     </row>
-    <row r="157" spans="1:78">
+    <row r="157" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -13927,7 +13986,7 @@
       <c r="BY157" s="1"/>
       <c r="BZ157" s="1"/>
     </row>
-    <row r="158" spans="1:78">
+    <row r="158" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -14007,7 +14066,7 @@
       <c r="BY158" s="1"/>
       <c r="BZ158" s="1"/>
     </row>
-    <row r="159" spans="1:78">
+    <row r="159" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -14087,7 +14146,7 @@
       <c r="BY159" s="1"/>
       <c r="BZ159" s="1"/>
     </row>
-    <row r="160" spans="1:78">
+    <row r="160" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -14167,7 +14226,7 @@
       <c r="BY160" s="1"/>
       <c r="BZ160" s="1"/>
     </row>
-    <row r="161" spans="1:78">
+    <row r="161" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -14247,7 +14306,7 @@
       <c r="BY161" s="1"/>
       <c r="BZ161" s="1"/>
     </row>
-    <row r="162" spans="1:78">
+    <row r="162" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -14327,7 +14386,7 @@
       <c r="BY162" s="1"/>
       <c r="BZ162" s="1"/>
     </row>
-    <row r="163" spans="1:78">
+    <row r="163" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -14407,7 +14466,7 @@
       <c r="BY163" s="1"/>
       <c r="BZ163" s="1"/>
     </row>
-    <row r="164" spans="1:78">
+    <row r="164" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -14487,7 +14546,7 @@
       <c r="BY164" s="1"/>
       <c r="BZ164" s="1"/>
     </row>
-    <row r="165" spans="1:78">
+    <row r="165" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -14567,7 +14626,7 @@
       <c r="BY165" s="1"/>
       <c r="BZ165" s="1"/>
     </row>
-    <row r="166" spans="1:78">
+    <row r="166" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -14647,7 +14706,7 @@
       <c r="BY166" s="1"/>
       <c r="BZ166" s="1"/>
     </row>
-    <row r="167" spans="1:78">
+    <row r="167" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -14727,7 +14786,7 @@
       <c r="BY167" s="1"/>
       <c r="BZ167" s="1"/>
     </row>
-    <row r="168" spans="1:78">
+    <row r="168" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -14807,7 +14866,7 @@
       <c r="BY168" s="1"/>
       <c r="BZ168" s="1"/>
     </row>
-    <row r="169" spans="1:78">
+    <row r="169" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -14887,7 +14946,7 @@
       <c r="BY169" s="1"/>
       <c r="BZ169" s="1"/>
     </row>
-    <row r="170" spans="1:78">
+    <row r="170" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -14967,7 +15026,7 @@
       <c r="BY170" s="1"/>
       <c r="BZ170" s="1"/>
     </row>
-    <row r="171" spans="1:78">
+    <row r="171" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -15047,7 +15106,7 @@
       <c r="BY171" s="1"/>
       <c r="BZ171" s="1"/>
     </row>
-    <row r="172" spans="1:78">
+    <row r="172" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -15127,7 +15186,7 @@
       <c r="BY172" s="1"/>
       <c r="BZ172" s="1"/>
     </row>
-    <row r="173" spans="1:78">
+    <row r="173" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -15207,7 +15266,7 @@
       <c r="BY173" s="1"/>
       <c r="BZ173" s="1"/>
     </row>
-    <row r="174" spans="1:78">
+    <row r="174" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -15287,7 +15346,7 @@
       <c r="BY174" s="1"/>
       <c r="BZ174" s="1"/>
     </row>
-    <row r="175" spans="1:78">
+    <row r="175" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -15367,7 +15426,7 @@
       <c r="BY175" s="1"/>
       <c r="BZ175" s="1"/>
     </row>
-    <row r="176" spans="1:78">
+    <row r="176" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -15447,7 +15506,7 @@
       <c r="BY176" s="1"/>
       <c r="BZ176" s="1"/>
     </row>
-    <row r="177" spans="1:78">
+    <row r="177" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -15527,7 +15586,7 @@
       <c r="BY177" s="1"/>
       <c r="BZ177" s="1"/>
     </row>
-    <row r="178" spans="1:78">
+    <row r="178" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -15607,7 +15666,7 @@
       <c r="BY178" s="1"/>
       <c r="BZ178" s="1"/>
     </row>
-    <row r="179" spans="1:78">
+    <row r="179" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -15687,7 +15746,7 @@
       <c r="BY179" s="1"/>
       <c r="BZ179" s="1"/>
     </row>
-    <row r="180" spans="1:78">
+    <row r="180" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -15767,7 +15826,7 @@
       <c r="BY180" s="1"/>
       <c r="BZ180" s="1"/>
     </row>
-    <row r="181" spans="1:78">
+    <row r="181" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -15847,7 +15906,7 @@
       <c r="BY181" s="1"/>
       <c r="BZ181" s="1"/>
     </row>
-    <row r="182" spans="1:78">
+    <row r="182" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -15927,7 +15986,7 @@
       <c r="BY182" s="1"/>
       <c r="BZ182" s="1"/>
     </row>
-    <row r="183" spans="1:78">
+    <row r="183" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -16007,7 +16066,7 @@
       <c r="BY183" s="1"/>
       <c r="BZ183" s="1"/>
     </row>
-    <row r="184" spans="1:78">
+    <row r="184" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -16087,7 +16146,7 @@
       <c r="BY184" s="1"/>
       <c r="BZ184" s="1"/>
     </row>
-    <row r="185" spans="1:78">
+    <row r="185" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -16167,7 +16226,7 @@
       <c r="BY185" s="1"/>
       <c r="BZ185" s="1"/>
     </row>
-    <row r="186" spans="1:78">
+    <row r="186" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -16247,7 +16306,7 @@
       <c r="BY186" s="1"/>
       <c r="BZ186" s="1"/>
     </row>
-    <row r="187" spans="1:78">
+    <row r="187" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -16327,7 +16386,7 @@
       <c r="BY187" s="1"/>
       <c r="BZ187" s="1"/>
     </row>
-    <row r="188" spans="1:78">
+    <row r="188" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -16407,7 +16466,7 @@
       <c r="BY188" s="1"/>
       <c r="BZ188" s="1"/>
     </row>
-    <row r="189" spans="1:78">
+    <row r="189" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -16487,7 +16546,7 @@
       <c r="BY189" s="1"/>
       <c r="BZ189" s="1"/>
     </row>
-    <row r="190" spans="1:78">
+    <row r="190" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -16567,7 +16626,7 @@
       <c r="BY190" s="1"/>
       <c r="BZ190" s="1"/>
     </row>
-    <row r="191" spans="1:78">
+    <row r="191" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -16647,7 +16706,7 @@
       <c r="BY191" s="1"/>
       <c r="BZ191" s="1"/>
     </row>
-    <row r="192" spans="1:78">
+    <row r="192" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -16727,7 +16786,7 @@
       <c r="BY192" s="1"/>
       <c r="BZ192" s="1"/>
     </row>
-    <row r="193" spans="1:78">
+    <row r="193" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -16807,7 +16866,7 @@
       <c r="BY193" s="1"/>
       <c r="BZ193" s="1"/>
     </row>
-    <row r="194" spans="1:78">
+    <row r="194" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -16887,7 +16946,7 @@
       <c r="BY194" s="1"/>
       <c r="BZ194" s="1"/>
     </row>
-    <row r="195" spans="1:78">
+    <row r="195" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -16967,7 +17026,7 @@
       <c r="BY195" s="1"/>
       <c r="BZ195" s="1"/>
     </row>
-    <row r="196" spans="1:78">
+    <row r="196" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -17047,7 +17106,7 @@
       <c r="BY196" s="1"/>
       <c r="BZ196" s="1"/>
     </row>
-    <row r="197" spans="1:78">
+    <row r="197" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -17127,7 +17186,7 @@
       <c r="BY197" s="1"/>
       <c r="BZ197" s="1"/>
     </row>
-    <row r="198" spans="1:78">
+    <row r="198" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -17207,7 +17266,7 @@
       <c r="BY198" s="1"/>
       <c r="BZ198" s="1"/>
     </row>
-    <row r="199" spans="1:78">
+    <row r="199" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -17287,7 +17346,7 @@
       <c r="BY199" s="1"/>
       <c r="BZ199" s="1"/>
     </row>
-    <row r="200" spans="1:78">
+    <row r="200" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -17367,7 +17426,7 @@
       <c r="BY200" s="1"/>
       <c r="BZ200" s="1"/>
     </row>
-    <row r="201" spans="1:78">
+    <row r="201" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -17447,7 +17506,7 @@
       <c r="BY201" s="1"/>
       <c r="BZ201" s="1"/>
     </row>
-    <row r="202" spans="1:78">
+    <row r="202" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -17527,7 +17586,7 @@
       <c r="BY202" s="1"/>
       <c r="BZ202" s="1"/>
     </row>
-    <row r="203" spans="1:78">
+    <row r="203" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -17607,7 +17666,7 @@
       <c r="BY203" s="1"/>
       <c r="BZ203" s="1"/>
     </row>
-    <row r="204" spans="1:78">
+    <row r="204" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -17687,7 +17746,7 @@
       <c r="BY204" s="1"/>
       <c r="BZ204" s="1"/>
     </row>
-    <row r="205" spans="1:78">
+    <row r="205" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -17767,7 +17826,7 @@
       <c r="BY205" s="1"/>
       <c r="BZ205" s="1"/>
     </row>
-    <row r="206" spans="1:78">
+    <row r="206" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -17847,7 +17906,7 @@
       <c r="BY206" s="1"/>
       <c r="BZ206" s="1"/>
     </row>
-    <row r="207" spans="1:78">
+    <row r="207" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -17927,7 +17986,7 @@
       <c r="BY207" s="1"/>
       <c r="BZ207" s="1"/>
     </row>
-    <row r="208" spans="1:78">
+    <row r="208" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -18007,7 +18066,7 @@
       <c r="BY208" s="1"/>
       <c r="BZ208" s="1"/>
     </row>
-    <row r="209" spans="1:78">
+    <row r="209" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -18087,7 +18146,7 @@
       <c r="BY209" s="1"/>
       <c r="BZ209" s="1"/>
     </row>
-    <row r="210" spans="1:78">
+    <row r="210" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -18167,7 +18226,7 @@
       <c r="BY210" s="1"/>
       <c r="BZ210" s="1"/>
     </row>
-    <row r="211" spans="1:78">
+    <row r="211" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -18247,7 +18306,7 @@
       <c r="BY211" s="1"/>
       <c r="BZ211" s="1"/>
     </row>
-    <row r="212" spans="1:78">
+    <row r="212" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -18327,7 +18386,7 @@
       <c r="BY212" s="1"/>
       <c r="BZ212" s="1"/>
     </row>
-    <row r="213" spans="1:78">
+    <row r="213" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -18407,7 +18466,7 @@
       <c r="BY213" s="1"/>
       <c r="BZ213" s="1"/>
     </row>
-    <row r="214" spans="1:78">
+    <row r="214" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -18487,7 +18546,7 @@
       <c r="BY214" s="1"/>
       <c r="BZ214" s="1"/>
     </row>
-    <row r="215" spans="1:78">
+    <row r="215" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -18567,7 +18626,7 @@
       <c r="BY215" s="1"/>
       <c r="BZ215" s="1"/>
     </row>
-    <row r="216" spans="1:78">
+    <row r="216" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -18647,7 +18706,7 @@
       <c r="BY216" s="1"/>
       <c r="BZ216" s="1"/>
     </row>
-    <row r="217" spans="1:78">
+    <row r="217" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -18727,7 +18786,7 @@
       <c r="BY217" s="1"/>
       <c r="BZ217" s="1"/>
     </row>
-    <row r="218" spans="1:78">
+    <row r="218" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -18807,7 +18866,7 @@
       <c r="BY218" s="1"/>
       <c r="BZ218" s="1"/>
     </row>
-    <row r="219" spans="1:78">
+    <row r="219" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -18887,7 +18946,7 @@
       <c r="BY219" s="1"/>
       <c r="BZ219" s="1"/>
     </row>
-    <row r="220" spans="1:78">
+    <row r="220" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -18967,7 +19026,7 @@
       <c r="BY220" s="1"/>
       <c r="BZ220" s="1"/>
     </row>
-    <row r="221" spans="1:78">
+    <row r="221" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -19047,7 +19106,7 @@
       <c r="BY221" s="1"/>
       <c r="BZ221" s="1"/>
     </row>
-    <row r="222" spans="1:78">
+    <row r="222" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -19127,7 +19186,7 @@
       <c r="BY222" s="1"/>
       <c r="BZ222" s="1"/>
     </row>
-    <row r="223" spans="1:78">
+    <row r="223" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -19207,7 +19266,7 @@
       <c r="BY223" s="1"/>
       <c r="BZ223" s="1"/>
     </row>
-    <row r="224" spans="1:78">
+    <row r="224" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -19287,7 +19346,7 @@
       <c r="BY224" s="1"/>
       <c r="BZ224" s="1"/>
     </row>
-    <row r="225" spans="1:78">
+    <row r="225" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -19367,7 +19426,7 @@
       <c r="BY225" s="1"/>
       <c r="BZ225" s="1"/>
     </row>
-    <row r="226" spans="1:78">
+    <row r="226" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -19447,7 +19506,7 @@
       <c r="BY226" s="1"/>
       <c r="BZ226" s="1"/>
     </row>
-    <row r="227" spans="1:78">
+    <row r="227" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -19527,7 +19586,7 @@
       <c r="BY227" s="1"/>
       <c r="BZ227" s="1"/>
     </row>
-    <row r="228" spans="1:78">
+    <row r="228" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -19607,7 +19666,7 @@
       <c r="BY228" s="1"/>
       <c r="BZ228" s="1"/>
     </row>
-    <row r="229" spans="1:78">
+    <row r="229" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -19687,7 +19746,7 @@
       <c r="BY229" s="1"/>
       <c r="BZ229" s="1"/>
     </row>
-    <row r="230" spans="1:78">
+    <row r="230" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -19767,7 +19826,7 @@
       <c r="BY230" s="1"/>
       <c r="BZ230" s="1"/>
     </row>
-    <row r="231" spans="1:78">
+    <row r="231" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -19847,7 +19906,7 @@
       <c r="BY231" s="1"/>
       <c r="BZ231" s="1"/>
     </row>
-    <row r="232" spans="1:78">
+    <row r="232" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -19927,7 +19986,7 @@
       <c r="BY232" s="1"/>
       <c r="BZ232" s="1"/>
     </row>
-    <row r="233" spans="1:78">
+    <row r="233" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -20007,7 +20066,7 @@
       <c r="BY233" s="1"/>
       <c r="BZ233" s="1"/>
     </row>
-    <row r="234" spans="1:78">
+    <row r="234" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -20087,7 +20146,7 @@
       <c r="BY234" s="1"/>
       <c r="BZ234" s="1"/>
     </row>
-    <row r="235" spans="1:78">
+    <row r="235" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -20167,7 +20226,7 @@
       <c r="BY235" s="1"/>
       <c r="BZ235" s="1"/>
     </row>
-    <row r="236" spans="1:78">
+    <row r="236" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -20247,7 +20306,7 @@
       <c r="BY236" s="1"/>
       <c r="BZ236" s="1"/>
     </row>
-    <row r="237" spans="1:78">
+    <row r="237" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -20327,7 +20386,7 @@
       <c r="BY237" s="1"/>
       <c r="BZ237" s="1"/>
     </row>
-    <row r="238" spans="1:78">
+    <row r="238" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -20407,7 +20466,7 @@
       <c r="BY238" s="1"/>
       <c r="BZ238" s="1"/>
     </row>
-    <row r="239" spans="1:78">
+    <row r="239" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -20487,7 +20546,7 @@
       <c r="BY239" s="1"/>
       <c r="BZ239" s="1"/>
     </row>
-    <row r="240" spans="1:78">
+    <row r="240" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -20567,7 +20626,7 @@
       <c r="BY240" s="1"/>
       <c r="BZ240" s="1"/>
     </row>
-    <row r="241" spans="1:78">
+    <row r="241" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -20647,7 +20706,7 @@
       <c r="BY241" s="1"/>
       <c r="BZ241" s="1"/>
     </row>
-    <row r="242" spans="1:78">
+    <row r="242" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -20727,7 +20786,7 @@
       <c r="BY242" s="1"/>
       <c r="BZ242" s="1"/>
     </row>
-    <row r="243" spans="1:78">
+    <row r="243" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -20807,7 +20866,7 @@
       <c r="BY243" s="1"/>
       <c r="BZ243" s="1"/>
     </row>
-    <row r="244" spans="1:78">
+    <row r="244" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -20887,7 +20946,7 @@
       <c r="BY244" s="1"/>
       <c r="BZ244" s="1"/>
     </row>
-    <row r="245" spans="1:78">
+    <row r="245" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -20967,7 +21026,7 @@
       <c r="BY245" s="1"/>
       <c r="BZ245" s="1"/>
     </row>
-    <row r="246" spans="1:78">
+    <row r="246" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -21047,7 +21106,7 @@
       <c r="BY246" s="1"/>
       <c r="BZ246" s="1"/>
     </row>
-    <row r="247" spans="1:78">
+    <row r="247" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -21127,7 +21186,7 @@
       <c r="BY247" s="1"/>
       <c r="BZ247" s="1"/>
     </row>
-    <row r="248" spans="1:78">
+    <row r="248" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -21207,7 +21266,7 @@
       <c r="BY248" s="1"/>
       <c r="BZ248" s="1"/>
     </row>
-    <row r="249" spans="1:78">
+    <row r="249" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -21287,7 +21346,7 @@
       <c r="BY249" s="1"/>
       <c r="BZ249" s="1"/>
     </row>
-    <row r="250" spans="1:78">
+    <row r="250" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -21367,7 +21426,7 @@
       <c r="BY250" s="1"/>
       <c r="BZ250" s="1"/>
     </row>
-    <row r="251" spans="1:78">
+    <row r="251" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -21447,7 +21506,7 @@
       <c r="BY251" s="1"/>
       <c r="BZ251" s="1"/>
     </row>
-    <row r="252" spans="1:78">
+    <row r="252" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -21527,7 +21586,7 @@
       <c r="BY252" s="1"/>
       <c r="BZ252" s="1"/>
     </row>
-    <row r="253" spans="1:78">
+    <row r="253" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -21607,7 +21666,7 @@
       <c r="BY253" s="1"/>
       <c r="BZ253" s="1"/>
     </row>
-    <row r="254" spans="1:78">
+    <row r="254" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -21687,7 +21746,7 @@
       <c r="BY254" s="1"/>
       <c r="BZ254" s="1"/>
     </row>
-    <row r="255" spans="1:78">
+    <row r="255" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -21767,7 +21826,7 @@
       <c r="BY255" s="1"/>
       <c r="BZ255" s="1"/>
     </row>
-    <row r="256" spans="1:78">
+    <row r="256" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -21847,7 +21906,7 @@
       <c r="BY256" s="1"/>
       <c r="BZ256" s="1"/>
     </row>
-    <row r="257" spans="1:78">
+    <row r="257" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -21927,7 +21986,7 @@
       <c r="BY257" s="1"/>
       <c r="BZ257" s="1"/>
     </row>
-    <row r="258" spans="1:78">
+    <row r="258" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -22007,7 +22066,7 @@
       <c r="BY258" s="1"/>
       <c r="BZ258" s="1"/>
     </row>
-    <row r="259" spans="1:78">
+    <row r="259" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -22087,7 +22146,7 @@
       <c r="BY259" s="1"/>
       <c r="BZ259" s="1"/>
     </row>
-    <row r="260" spans="1:78">
+    <row r="260" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -22167,7 +22226,7 @@
       <c r="BY260" s="1"/>
       <c r="BZ260" s="1"/>
     </row>
-    <row r="261" spans="1:78">
+    <row r="261" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -22247,7 +22306,7 @@
       <c r="BY261" s="1"/>
       <c r="BZ261" s="1"/>
     </row>
-    <row r="262" spans="1:78">
+    <row r="262" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -22327,7 +22386,7 @@
       <c r="BY262" s="1"/>
       <c r="BZ262" s="1"/>
     </row>
-    <row r="263" spans="1:78">
+    <row r="263" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -22407,7 +22466,7 @@
       <c r="BY263" s="1"/>
       <c r="BZ263" s="1"/>
     </row>
-    <row r="264" spans="1:78">
+    <row r="264" spans="1:78" x14ac:dyDescent="0.2">
       <c r="U264" s="1"/>
       <c r="V264" s="1"/>
       <c r="W264" s="1"/>
@@ -22467,7 +22526,7 @@
       <c r="BY264" s="1"/>
       <c r="BZ264" s="1"/>
     </row>
-    <row r="265" spans="1:78">
+    <row r="265" spans="1:78" x14ac:dyDescent="0.2">
       <c r="U265" s="1"/>
       <c r="V265" s="1"/>
       <c r="W265" s="1"/>
@@ -22529,26 +22588,38 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}" topLeftCell="A32">
+      <selection activeCell="F70" sqref="F70"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}" topLeftCell="A5">
       <selection activeCell="I47" sqref="I47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
+    <customSheetView guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}" topLeftCell="A116">
+      <selection activeCell="E138" sqref="E138"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+    </customSheetView>
     <customSheetView guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -22560,14 +22631,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
+    <customSheetView guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+    </customSheetView>
     <customSheetView guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/data/Rosa e Stats 2020-2021.xlsx
+++ b/data/Rosa e Stats 2020-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totti/Developer/fun/tamarindi-web/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{13B7B3F3-D70A-1D46-86E3-6DBD50578131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{EC8CE34D-91C5-D640-9B03-8B413D2F5FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="620" windowWidth="18740" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Acer - Visualizzazione personale" guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="802" activeSheetId="1"/>
     <customWorkbookView name="Matteo Cutroni - Personal View" guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}" mergeInterval="0" personalView="1" xWindow="18" yWindow="31" windowWidth="937" windowHeight="585" activeSheetId="1"/>
-    <customWorkbookView name="Acer - Visualizzazione personale" guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="802" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
   <si>
     <t>TAMARINDI F.C. 2020-2021</t>
   </si>
@@ -421,6 +421,9 @@
   <si>
     <t>Coddetta [P]</t>
   </si>
+  <si>
+    <t>13</t>
+  </si>
 </sst>
 </file>
 
@@ -523,10 +526,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +550,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BA0E6AD0-F03D-024F-B6B0-768153E5143B}" diskRevisions="1" revisionId="351" version="37">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F71431B5-F5BD-8445-9B0B-7C45DA8470D0}" diskRevisions="1" revisionId="356" version="38">
   <header guid="{BA0E6AD0-F03D-024F-B6B0-768153E5143B}" dateTime="2025-11-18T23:59:00" maxSheetId="4" userName="Matteo Cutroni" r:id="rId37" minRId="349" maxRId="351">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -553,7 +558,51 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{F71431B5-F5BD-8445-9B0B-7C45DA8470D0}" dateTime="2025-11-19T01:12:12" maxSheetId="4" userName="Matteo Cutroni" r:id="rId38" minRId="352" maxRId="356">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="352" sId="1">
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>13</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="D13">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="353" sId="1">
+    <nc r="D17">
+      <v>23</v>
+    </nc>
+  </rcc>
+  <rcc rId="354" sId="1">
+    <nc r="D22">
+      <v>34</v>
+    </nc>
+  </rcc>
+  <rcc rId="355" sId="1">
+    <nc r="D25">
+      <v>24</v>
+    </nc>
+  </rcc>
+  <rcc rId="356" sId="1">
+    <nc r="D34">
+      <v>56</v>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1217,7 +1266,7 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:78" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:78" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +1929,9 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11">
         <v>1</v>
@@ -2266,7 +2317,9 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11">
+        <v>23</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11">
         <v>1</v>
@@ -2763,7 +2816,9 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>34</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
@@ -3066,7 +3121,9 @@
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11">
+        <v>24</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11">
         <v>1</v>
@@ -3775,106 +3832,106 @@
       <c r="BY31" s="1"/>
       <c r="BZ31" s="1"/>
     </row>
-    <row r="32" spans="1:78" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:78" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15">
         <v>31</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16">
+      <c r="E32" s="15"/>
+      <c r="F32" s="15">
         <v>2</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16">
+      <c r="G32" s="15"/>
+      <c r="H32" s="15">
         <f>SUM(F32:G32)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16">
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15">
         <f>SUM(J32:L32)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16" t="s">
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16" t="s">
+      <c r="U32" s="15"/>
+      <c r="V32" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="W32" s="16"/>
-      <c r="Z32" s="18">
+      <c r="W32" s="15"/>
+      <c r="Z32" s="17">
         <v>36581</v>
       </c>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16">
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15">
         <v>6</v>
       </c>
-      <c r="AC32" s="16">
+      <c r="AC32" s="15">
         <f>SUM(AB32,M32)</f>
         <v>6</v>
       </c>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16"/>
-      <c r="AN32" s="16"/>
-      <c r="AO32" s="16"/>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="16"/>
-      <c r="AR32" s="16"/>
-      <c r="AS32" s="16"/>
-      <c r="AT32" s="16"/>
-      <c r="AU32" s="16"/>
-      <c r="AV32" s="16"/>
-      <c r="AW32" s="16"/>
-      <c r="AX32" s="16"/>
-      <c r="AY32" s="16"/>
-      <c r="AZ32" s="16"/>
-      <c r="BA32" s="16"/>
-      <c r="BB32" s="16"/>
-      <c r="BC32" s="16"/>
-      <c r="BD32" s="16"/>
-      <c r="BE32" s="16"/>
-      <c r="BF32" s="16"/>
-      <c r="BG32" s="16"/>
-      <c r="BH32" s="16"/>
-      <c r="BI32" s="16"/>
-      <c r="BJ32" s="16"/>
-      <c r="BK32" s="16"/>
-      <c r="BL32" s="16"/>
-      <c r="BM32" s="16"/>
-      <c r="BN32" s="16"/>
-      <c r="BO32" s="16"/>
-      <c r="BP32" s="16"/>
-      <c r="BQ32" s="16"/>
-      <c r="BR32" s="16"/>
-      <c r="BS32" s="16"/>
-      <c r="BT32" s="16"/>
-      <c r="BU32" s="16"/>
-      <c r="BV32" s="16"/>
-      <c r="BW32" s="16"/>
-      <c r="BX32" s="16"/>
-      <c r="BY32" s="16"/>
-      <c r="BZ32" s="16"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="15"/>
+      <c r="BO32" s="15"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
+      <c r="BT32" s="15"/>
+      <c r="BU32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BW32" s="15"/>
+      <c r="BX32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="15"/>
     </row>
     <row r="33" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
@@ -3981,7 +4038,9 @@
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="D34" s="11">
+        <v>56</v>
+      </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11">
         <v>1</v>
@@ -22588,13 +22647,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}" topLeftCell="A32">
-      <selection activeCell="F70" sqref="F70"/>
+    <customSheetView guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}" topLeftCell="A5">
+      <selection activeCell="I47" sqref="I47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}" topLeftCell="A5">
-      <selection activeCell="I47" sqref="I47"/>
+    <customSheetView guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}" topLeftCell="A32">
+      <selection activeCell="F70" sqref="F70"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -22615,12 +22674,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}" topLeftCell="A116">
-      <selection activeCell="E138" sqref="E138"/>
+    <customSheetView guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
-    <customSheetView guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}">
+    <customSheetView guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}" topLeftCell="A116">
+      <selection activeCell="E138" sqref="E138"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
@@ -22639,11 +22698,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}">
+    <customSheetView guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
-    <customSheetView guid="{732A3E98-21F1-4683-8627-B42F20E3CD9F}">
+    <customSheetView guid="{BDA24EDC-855E-3043-8B0E-6E43ED6DDC1A}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
